--- a/2. Hardware PCB/REV_4.0/middle/Project Outputs for middlePCB_rev4/Pick Place for middlePCB_rev4.xlsx
+++ b/2. Hardware PCB/REV_4.0/middle/Project Outputs for middlePCB_rev4/Pick Place for middlePCB_rev4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\20190909 - 3phase_inverter\3phase_inverter\2. Hardware PCB\REV_4.0\middle\Project Outputs for middlePCB_rev4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VMORAIS\Desktop\3phase_inverter\2. Hardware PCB\REV_4.0\middle\Project Outputs for middlePCB_rev4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="255">
   <si>
     <t>Altium Designer Pick and Place Locations</t>
   </si>
   <si>
-    <t>F:\Projects\20190909 - 3phase_inverter\3phase_inverter\2. Hardware PCB\REV_4.0\middle\Project Outputs for middlePCB_rev4\Pick Place for middlePCB_rev4.csv</t>
+    <t>C:\Users\VMORAIS\Desktop\3phase_inverter\2. Hardware PCB\REV_4.0\middle\Project Outputs for middlePCB_rev4\Pick Place for middlePCB_rev4.csv</t>
   </si>
   <si>
     <t>========================================================================================================================</t>
@@ -33,10 +33,10 @@
     <t>File Design Information:</t>
   </si>
   <si>
-    <t>Date:       12/03/20</t>
-  </si>
-  <si>
-    <t>Time:       14:43</t>
+    <t>Date:       16/03/20</t>
+  </si>
+  <si>
+    <t>Time:       12:12</t>
   </si>
   <si>
     <t>Revision:   Not in VersionControl</t>
@@ -87,16 +87,16 @@
     <t>SOIC-MIC4126</t>
   </si>
   <si>
-    <t>989.000</t>
-  </si>
-  <si>
-    <t>2683.000</t>
+    <t>1065.000</t>
+  </si>
+  <si>
+    <t>2486.000</t>
   </si>
   <si>
     <t>Drivers de portas 1.5A Dual High Speed MOSFET Driver with Low Thermal Impedance</t>
   </si>
   <si>
-    <t>C18690</t>
+    <t>C20551</t>
   </si>
   <si>
     <t>R9</t>
@@ -108,10 +108,10 @@
     <t>RESC_0805</t>
   </si>
   <si>
-    <t>3203.000</t>
-  </si>
-  <si>
-    <t>2360.000</t>
+    <t>3279.000</t>
+  </si>
+  <si>
+    <t>2163.000</t>
   </si>
   <si>
     <t>Resistores de Filme Espesso - SMD 1/8Watt 0ohms Commercial Use</t>
@@ -123,19 +123,19 @@
     <t>R8</t>
   </si>
   <si>
-    <t>3526.000</t>
-  </si>
-  <si>
-    <t>2896.000</t>
+    <t>3602.000</t>
+  </si>
+  <si>
+    <t>2699.000</t>
   </si>
   <si>
     <t>R7</t>
   </si>
   <si>
-    <t>3560.000</t>
-  </si>
-  <si>
-    <t>3020.000</t>
+    <t>3636.000</t>
+  </si>
+  <si>
+    <t>2823.000</t>
   </si>
   <si>
     <t>P13</t>
@@ -147,10 +147,10 @@
     <t>Header_8x1_8.5mm</t>
   </si>
   <si>
-    <t>3300.000</t>
-  </si>
-  <si>
-    <t>2550.000</t>
+    <t>3376.000</t>
+  </si>
+  <si>
+    <t>2353.000</t>
   </si>
   <si>
     <t>Distribuidores e Alojamento de Fios CGrid Hrd SRDW THo le 8ckt</t>
@@ -159,13 +159,13 @@
     <t>P11</t>
   </si>
   <si>
-    <t>2450.000</t>
+    <t>2253.000</t>
   </si>
   <si>
     <t>P9</t>
   </si>
   <si>
-    <t>2215.000</t>
+    <t>2291.000</t>
   </si>
   <si>
     <t>R11</t>
@@ -174,16 +174,16 @@
     <t>TopLayer</t>
   </si>
   <si>
-    <t>640.000</t>
-  </si>
-  <si>
-    <t>2845.000</t>
+    <t>716.000</t>
+  </si>
+  <si>
+    <t>2648.000</t>
   </si>
   <si>
     <t>R6</t>
   </si>
   <si>
-    <t>425.000</t>
+    <t>501.000</t>
   </si>
   <si>
     <t>R10</t>
@@ -192,10 +192,10 @@
     <t>R 10 1/8W 0805 1%</t>
   </si>
   <si>
-    <t>964.000</t>
-  </si>
-  <si>
-    <t>2876.000</t>
+    <t>1040.000</t>
+  </si>
+  <si>
+    <t>2679.000</t>
   </si>
   <si>
     <t>Resistores de Filme Espesso - SMD 1/8Watt 10ohms 1% Commercial Use</t>
@@ -207,10 +207,10 @@
     <t>R5</t>
   </si>
   <si>
-    <t>838.000</t>
-  </si>
-  <si>
-    <t>2827.000</t>
+    <t>914.000</t>
+  </si>
+  <si>
+    <t>2630.000</t>
   </si>
   <si>
     <t>C12</t>
@@ -222,10 +222,10 @@
     <t>CAPC_1206</t>
   </si>
   <si>
-    <t>1158.000</t>
-  </si>
-  <si>
-    <t>2706.000</t>
+    <t>1234.000</t>
+  </si>
+  <si>
+    <t>2509.000</t>
   </si>
   <si>
     <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 1206 50V 10uF 20% X5R</t>
@@ -243,10 +243,10 @@
     <t>DC/DC_-_OKI-78SR-E</t>
   </si>
   <si>
-    <t>239.843</t>
-  </si>
-  <si>
-    <t>1427.000</t>
+    <t>315.842</t>
+  </si>
+  <si>
+    <t>1230.000</t>
   </si>
   <si>
     <t>Conversores CC/CC sem isolação 7-36Vin 5Vout 1.5A VSIP Encapsulated</t>
@@ -258,10 +258,10 @@
     <t>R 330 1/8 0805 1%</t>
   </si>
   <si>
-    <t>536.000</t>
-  </si>
-  <si>
-    <t>1359.000</t>
+    <t>612.000</t>
+  </si>
+  <si>
+    <t>1162.000</t>
   </si>
   <si>
     <t>Resistores de Filme Espesso - SMD 1/8Watt 330ohms 1% Commercial Use</t>
@@ -279,10 +279,10 @@
     <t>Inductor_-_RLS-126</t>
   </si>
   <si>
-    <t>107.000</t>
-  </si>
-  <si>
-    <t>1246.000</t>
+    <t>183.000</t>
+  </si>
+  <si>
+    <t>1049.000</t>
   </si>
   <si>
     <t>Indutores fixos Line Inductors for RECOM Power Supply</t>
@@ -297,10 +297,10 @@
     <t>DIODE_1206</t>
   </si>
   <si>
-    <t>537.000</t>
-  </si>
-  <si>
-    <t>1540.000</t>
+    <t>613.000</t>
+  </si>
+  <si>
+    <t>1343.000</t>
   </si>
   <si>
     <t>LEDs padrão - SMD GREEN WATER CLEAR</t>
@@ -312,19 +312,19 @@
     <t>C6</t>
   </si>
   <si>
-    <t>185.000</t>
-  </si>
-  <si>
-    <t>1089.000</t>
+    <t>261.000</t>
+  </si>
+  <si>
+    <t>892.000</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>180.000</t>
-  </si>
-  <si>
-    <t>1795.314</t>
+    <t>256.000</t>
+  </si>
+  <si>
+    <t>1598.314</t>
   </si>
   <si>
     <t>R1</t>
@@ -333,10 +333,10 @@
     <t>R 150 1/8W 0805 1%</t>
   </si>
   <si>
-    <t>359.000</t>
-  </si>
-  <si>
-    <t>2429.000</t>
+    <t>435.000</t>
+  </si>
+  <si>
+    <t>2232.000</t>
   </si>
   <si>
     <t>Resistores de Filme Espesso - SMD 1/8watt 150ohms 1% 100ppm</t>
@@ -348,10 +348,10 @@
     <t>D1</t>
   </si>
   <si>
-    <t>263.118</t>
-  </si>
-  <si>
-    <t>2533.000</t>
+    <t>339.118</t>
+  </si>
+  <si>
+    <t>2336.000</t>
   </si>
   <si>
     <t>U2</t>
@@ -363,10 +363,10 @@
     <t>DC/DC_-_R-78E3.3</t>
   </si>
   <si>
-    <t>230.000</t>
-  </si>
-  <si>
-    <t>2285.000</t>
+    <t>306.000</t>
+  </si>
+  <si>
+    <t>2088.000</t>
   </si>
   <si>
     <t>Conversores CC/CC sem isolação 3.3V 500MA OUT THRU</t>
@@ -375,25 +375,25 @@
     <t>L1</t>
   </si>
   <si>
-    <t>94.000</t>
-  </si>
-  <si>
-    <t>1937.000</t>
+    <t>170.000</t>
+  </si>
+  <si>
+    <t>1740.000</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>131.000</t>
-  </si>
-  <si>
-    <t>2426.000</t>
+    <t>207.000</t>
+  </si>
+  <si>
+    <t>2229.000</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>1814.999</t>
+    <t>1617.999</t>
   </si>
   <si>
     <t>U1</t>
@@ -405,10 +405,10 @@
     <t>MeanWell_SCWNo6</t>
   </si>
   <si>
-    <t>1591.000</t>
-  </si>
-  <si>
-    <t>1334.000</t>
+    <t>1667.000</t>
+  </si>
+  <si>
+    <t>1137.000</t>
   </si>
   <si>
     <t>Conversores CC/CC com isolação 6W 18-36Vin 15Vout 400mA DIP24 Iso</t>
@@ -420,10 +420,10 @@
     <t>R 2k7 1/8 0805 1%</t>
   </si>
   <si>
-    <t>-12.000</t>
-  </si>
-  <si>
-    <t>322.000</t>
+    <t>64.000</t>
+  </si>
+  <si>
+    <t>125.000</t>
   </si>
   <si>
     <t>Resistores de Filme Espesso - SMD 1/8watt 2.7Kohms 1% 100ppm</t>
@@ -435,10 +435,10 @@
     <t>D2</t>
   </si>
   <si>
-    <t>114.000</t>
-  </si>
-  <si>
-    <t>336.000</t>
+    <t>190.000</t>
+  </si>
+  <si>
+    <t>139.000</t>
   </si>
   <si>
     <t>P 2p 5mm</t>
@@ -447,10 +447,10 @@
     <t>connector1x2_parafuso</t>
   </si>
   <si>
-    <t>105.001</t>
-  </si>
-  <si>
-    <t>641.000</t>
+    <t>181.001</t>
+  </si>
+  <si>
+    <t>444.000</t>
   </si>
   <si>
     <t>Bloques de terminales de PCB de perfil estándar RS de 5,0 mm</t>
@@ -465,10 +465,10 @@
     <t>Relay_-_G6DN</t>
   </si>
   <si>
-    <t>723.787</t>
-  </si>
-  <si>
-    <t>3140.000</t>
+    <t>799.787</t>
+  </si>
+  <si>
+    <t>2943.000</t>
   </si>
   <si>
     <t>Relés para uso geral 1 form A w/ 5VDC Coil-standard type</t>
@@ -477,31 +477,31 @@
     <t>U11</t>
   </si>
   <si>
-    <t>508.787</t>
+    <t>584.787</t>
   </si>
   <si>
     <t>K2</t>
   </si>
   <si>
-    <t>102.665</t>
-  </si>
-  <si>
-    <t>2875.000</t>
+    <t>178.665</t>
+  </si>
+  <si>
+    <t>2678.000</t>
   </si>
   <si>
     <t>K1</t>
   </si>
   <si>
-    <t>3320.000</t>
+    <t>3123.000</t>
   </si>
   <si>
     <t>Input L-N1</t>
   </si>
   <si>
-    <t>532.128</t>
-  </si>
-  <si>
-    <t>3715.000</t>
+    <t>608.128</t>
+  </si>
+  <si>
+    <t>3518.000</t>
   </si>
   <si>
     <t>P6</t>
@@ -513,19 +513,19 @@
     <t>MOLEX_3p_105431_1103</t>
   </si>
   <si>
-    <t>3225.001</t>
-  </si>
-  <si>
-    <t>1005.000</t>
+    <t>3301.001</t>
+  </si>
+  <si>
+    <t>808.000</t>
   </si>
   <si>
     <t>P8</t>
   </si>
   <si>
-    <t>3654.999</t>
-  </si>
-  <si>
-    <t>1360.413</t>
+    <t>3730.999</t>
+  </si>
+  <si>
+    <t>1163.413</t>
   </si>
   <si>
     <t>P7</t>
@@ -534,67 +534,67 @@
     <t>P5</t>
   </si>
   <si>
-    <t>3654.996</t>
-  </si>
-  <si>
-    <t>1715.000</t>
+    <t>3730.996</t>
+  </si>
+  <si>
+    <t>1518.000</t>
   </si>
   <si>
     <t>P1</t>
   </si>
   <si>
-    <t>525.002</t>
-  </si>
-  <si>
-    <t>2590.000</t>
+    <t>601.002</t>
+  </si>
+  <si>
+    <t>2393.000</t>
   </si>
   <si>
     <t>P2</t>
   </si>
   <si>
-    <t>1830.500</t>
+    <t>1633.500</t>
   </si>
   <si>
     <t>P3</t>
   </si>
   <si>
-    <t>1071.000</t>
+    <t>874.000</t>
   </si>
   <si>
     <t>P4</t>
   </si>
   <si>
-    <t>3661.001</t>
-  </si>
-  <si>
-    <t>2110.000</t>
+    <t>3737.001</t>
+  </si>
+  <si>
+    <t>1913.000</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>1990.000</t>
-  </si>
-  <si>
-    <t>1500.000</t>
+    <t>2066.000</t>
+  </si>
+  <si>
+    <t>1303.000</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>2435.000</t>
-  </si>
-  <si>
-    <t>1103.000</t>
+    <t>2511.000</t>
+  </si>
+  <si>
+    <t>906.000</t>
   </si>
   <si>
     <t>L2</t>
   </si>
   <si>
-    <t>2070.000</t>
-  </si>
-  <si>
-    <t>1305.000</t>
+    <t>2146.000</t>
+  </si>
+  <si>
+    <t>1108.000</t>
   </si>
   <si>
     <t>U5</t>
@@ -603,10 +603,10 @@
     <t>IC Driver 5A Dual ENA IX4340</t>
   </si>
   <si>
-    <t>3010.000</t>
-  </si>
-  <si>
-    <t>2020.000</t>
+    <t>3086.000</t>
+  </si>
+  <si>
+    <t>1823.000</t>
   </si>
   <si>
     <t>Drivers de portas Dual 5A Gate Driver IC</t>
@@ -624,10 +624,10 @@
     <t>SOIC127P610X155-16N</t>
   </si>
   <si>
-    <t>2465.000</t>
-  </si>
-  <si>
-    <t>2155.000</t>
+    <t>2541.000</t>
+  </si>
+  <si>
+    <t>1958.000</t>
   </si>
   <si>
     <t>Isoladores digitais 1 kV 6-channel digital isolator</t>
@@ -636,13 +636,16 @@
     <t>U3</t>
   </si>
   <si>
-    <t>1245.000</t>
+    <t>2526.000</t>
+  </si>
+  <si>
+    <t>1048.000</t>
   </si>
   <si>
     <t>U9</t>
   </si>
   <si>
-    <t>1950.000</t>
+    <t>2026.000</t>
   </si>
   <si>
     <t>U8</t>
@@ -651,25 +654,28 @@
     <t>U10</t>
   </si>
   <si>
-    <t>1410.000</t>
+    <t>1213.000</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>2039.685</t>
+    <t>1842.685</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>1740.000</t>
+    <t>3096.000</t>
+  </si>
+  <si>
+    <t>1543.000</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>1440.000</t>
+    <t>1243.000</t>
   </si>
   <si>
     <t>P10</t>
@@ -678,37 +684,37 @@
     <t>C8</t>
   </si>
   <si>
-    <t>1304.000</t>
-  </si>
-  <si>
-    <t>1862.000</t>
+    <t>1380.000</t>
+  </si>
+  <si>
+    <t>1665.000</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>1117.000</t>
-  </si>
-  <si>
-    <t>1925.000</t>
+    <t>1193.000</t>
+  </si>
+  <si>
+    <t>1728.000</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>1462.000</t>
-  </si>
-  <si>
-    <t>1926.000</t>
+    <t>1538.000</t>
+  </si>
+  <si>
+    <t>1729.000</t>
   </si>
   <si>
     <t>L4</t>
   </si>
   <si>
-    <t>903.000</t>
-  </si>
-  <si>
-    <t>1878.000</t>
+    <t>979.000</t>
+  </si>
+  <si>
+    <t>1681.000</t>
   </si>
   <si>
     <t>P12</t>
@@ -720,10 +726,10 @@
     <t>HEADER_4p_molex</t>
   </si>
   <si>
-    <t>3740.000</t>
-  </si>
-  <si>
-    <t>3110.000</t>
+    <t>3816.000</t>
+  </si>
+  <si>
+    <t>2913.000</t>
   </si>
   <si>
     <t>Distribuidores e Alojamento de Fios 4 PIN HEADER WITH FR R WITH FRICTION LOCK</t>
@@ -735,10 +741,10 @@
     <t>R 1k2 1/8 0805 1%</t>
   </si>
   <si>
-    <t>1520.000</t>
-  </si>
-  <si>
-    <t>2052.000</t>
+    <t>1596.000</t>
+  </si>
+  <si>
+    <t>1855.000</t>
   </si>
   <si>
     <t>Resistores de Filme Espesso - SMD 1/8watt 1.2Kohms 1%</t>
@@ -753,10 +759,10 @@
     <t>IC DC/DC 12V</t>
   </si>
   <si>
-    <t>1234.000</t>
-  </si>
-  <si>
-    <t>2069.000</t>
+    <t>1310.000</t>
+  </si>
+  <si>
+    <t>1872.000</t>
   </si>
   <si>
     <t>Conversores CC/CC sem isolação 15-36Vin 12Vout 1.0A VSIP Encapsulated</t>
@@ -765,19 +771,19 @@
     <t>R12</t>
   </si>
   <si>
-    <t>1389.000</t>
-  </si>
-  <si>
-    <t>2713.055</t>
+    <t>1465.000</t>
+  </si>
+  <si>
+    <t>2516.055</t>
   </si>
   <si>
     <t>R13</t>
   </si>
   <si>
-    <t>1320.000</t>
-  </si>
-  <si>
-    <t>2585.685</t>
+    <t>1396.000</t>
+  </si>
+  <si>
+    <t>2388.685</t>
   </si>
 </sst>
 </file>
@@ -1586,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,7 +1695,7 @@
         <v>23</v>
       </c>
       <c r="G14">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H14" t="s">
         <v>24</v>
@@ -2109,7 +2115,7 @@
         <v>93</v>
       </c>
       <c r="G29">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="H29" t="s">
         <v>94</v>
@@ -2225,7 +2231,7 @@
         <v>110</v>
       </c>
       <c r="G33">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
         <v>94</v>
@@ -2419,7 +2425,7 @@
         <v>139</v>
       </c>
       <c r="G40">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="H40" t="s">
         <v>94</v>
@@ -2945,10 +2951,10 @@
         <v>73</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="F60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G60">
         <v>180</v>
@@ -2959,7 +2965,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B61" t="s">
         <v>199</v>
@@ -2971,7 +2977,7 @@
         <v>200</v>
       </c>
       <c r="E61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F61" t="s">
         <v>202</v>
@@ -2985,7 +2991,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B62" t="s">
         <v>193</v>
@@ -3014,7 +3020,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B63" t="s">
         <v>193</v>
@@ -3029,7 +3035,7 @@
         <v>194</v>
       </c>
       <c r="F63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G63">
         <v>90</v>
@@ -3043,7 +3049,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -3058,7 +3064,7 @@
         <v>194</v>
       </c>
       <c r="F64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G64">
         <v>360</v>
@@ -3072,7 +3078,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
@@ -3084,10 +3090,10 @@
         <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="F65" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G65">
         <v>360</v>
@@ -3101,7 +3107,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
@@ -3116,7 +3122,7 @@
         <v>194</v>
       </c>
       <c r="F66" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G66">
         <v>360</v>
@@ -3130,7 +3136,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B67" t="s">
         <v>40</v>
@@ -3156,7 +3162,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B68" t="s">
         <v>65</v>
@@ -3168,10 +3174,10 @@
         <v>66</v>
       </c>
       <c r="E68" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F68" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G68">
         <v>270</v>
@@ -3185,7 +3191,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B69" t="s">
         <v>65</v>
@@ -3197,10 +3203,10 @@
         <v>66</v>
       </c>
       <c r="E69" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F69" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G69">
         <v>180</v>
@@ -3214,7 +3220,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B70" t="s">
         <v>90</v>
@@ -3226,13 +3232,13 @@
         <v>91</v>
       </c>
       <c r="E70" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F70" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G70">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H70" t="s">
         <v>94</v>
@@ -3243,7 +3249,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B71" t="s">
         <v>84</v>
@@ -3255,10 +3261,10 @@
         <v>85</v>
       </c>
       <c r="E71" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F71" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G71">
         <v>90</v>
@@ -3269,36 +3275,36 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C72" t="s">
         <v>50</v>
       </c>
       <c r="D72" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E72" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F72" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G72">
         <v>90</v>
       </c>
       <c r="H72" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B73" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C73" t="s">
         <v>20</v>
@@ -3307,27 +3313,27 @@
         <v>28</v>
       </c>
       <c r="E73" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F73" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G73">
         <v>90</v>
       </c>
       <c r="H73" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I73" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B74" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
@@ -3336,21 +3342,21 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F74" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G74">
         <v>180</v>
       </c>
       <c r="H74" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B75" t="s">
         <v>27</v>
@@ -3362,10 +3368,10 @@
         <v>28</v>
       </c>
       <c r="E75" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F75" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G75">
         <v>180</v>
@@ -3379,7 +3385,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B76" t="s">
         <v>27</v>
@@ -3391,10 +3397,10 @@
         <v>28</v>
       </c>
       <c r="E76" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F76" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G76">
         <v>270</v>

--- a/2. Hardware PCB/REV_4.0/middle/Project Outputs for middlePCB_rev4/Pick Place for middlePCB_rev4.xlsx
+++ b/2. Hardware PCB/REV_4.0/middle/Project Outputs for middlePCB_rev4/Pick Place for middlePCB_rev4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="16770"/>
   </bookViews>
   <sheets>
     <sheet name="Pick Place for middlePCB_rev4" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="261">
   <si>
     <t>Altium Designer Pick and Place Locations</t>
   </si>
@@ -33,10 +33,10 @@
     <t>File Design Information:</t>
   </si>
   <si>
-    <t>Date:       16/03/20</t>
-  </si>
-  <si>
-    <t>Time:       12:12</t>
+    <t>Date:       08/05/20</t>
+  </si>
+  <si>
+    <t>Time:       21:56</t>
   </si>
   <si>
     <t>Revision:   Not in VersionControl</t>
@@ -75,18 +75,723 @@
     <t>LCSC PART #</t>
   </si>
   <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L 2A CM</t>
+  </si>
+  <si>
+    <t>BottomLayer</t>
+  </si>
+  <si>
+    <t>FILTER-SMD_4P-L9.2-W6.0-TL</t>
+  </si>
+  <si>
+    <t>515.000</t>
+  </si>
+  <si>
+    <t>321.360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMON MODE CHOKES / FILTERS POWER LINE 2A SMD-4 ROHS</t>
+  </si>
+  <si>
+    <t>C261397</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R 0 1/8W 0805</t>
+  </si>
+  <si>
+    <t>RESC_0805</t>
+  </si>
+  <si>
+    <t>1396.000</t>
+  </si>
+  <si>
+    <t>2388.685</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Espesso - SMD 1/8Watt 0ohms Commercial Use</t>
+  </si>
+  <si>
+    <t>C17477</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>1465.000</t>
+  </si>
+  <si>
+    <t>2516.055</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>IC DC/DC 12V</t>
+  </si>
+  <si>
+    <t>DC/DC_-_OKI-78SR-E</t>
+  </si>
+  <si>
+    <t>1310.000</t>
+  </si>
+  <si>
+    <t>1872.000</t>
+  </si>
+  <si>
+    <t>Conversores CC/CC sem isolação 15-36Vin 12Vout 1.0A VSIP Encapsulated</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R 1k2 1/8 0805 1%</t>
+  </si>
+  <si>
+    <t>1596.000</t>
+  </si>
+  <si>
+    <t>1855.000</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Espesso - SMD 1/8watt 1.2Kohms 1%</t>
+  </si>
+  <si>
+    <t>C17379</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P 4p 2.54 MOL FAN</t>
+  </si>
+  <si>
+    <t>TopLayer</t>
+  </si>
+  <si>
+    <t>HEADER_4p_molex</t>
+  </si>
+  <si>
+    <t>3816.000</t>
+  </si>
+  <si>
+    <t>2913.000</t>
+  </si>
+  <si>
+    <t>Distribuidores e Alojamento de Fios 4 PIN HEADER WITH FR R WITH FRICTION LOCK</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>IND RLS-126</t>
+  </si>
+  <si>
+    <t>Inductor_-_RLS-126</t>
+  </si>
+  <si>
+    <t>979.000</t>
+  </si>
+  <si>
+    <t>1681.000</t>
+  </si>
+  <si>
+    <t>Indutores fixos Line Inductors for RECOM Power Supply</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>IC LED 1206</t>
+  </si>
+  <si>
+    <t>DIODE_1206</t>
+  </si>
+  <si>
+    <t>1538.000</t>
+  </si>
+  <si>
+    <t>1729.000</t>
+  </si>
+  <si>
+    <t>LEDs padrão - SMD GREEN WATER CLEAR</t>
+  </si>
+  <si>
+    <t>C88326</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C 10uF 1206 MLCC 50V X5R</t>
+  </si>
+  <si>
+    <t>CAPC_1206</t>
+  </si>
+  <si>
+    <t>1193.000</t>
+  </si>
+  <si>
+    <t>1728.000</t>
+  </si>
+  <si>
+    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 1206 50V 10uF 20% X5R</t>
+  </si>
+  <si>
+    <t>C13585</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>1380.000</t>
+  </si>
+  <si>
+    <t>1665.000</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P 8p 2.54 SR DW 8P</t>
+  </si>
+  <si>
+    <t>Header_8x1_8.5mm</t>
+  </si>
+  <si>
+    <t>2291.000</t>
+  </si>
+  <si>
+    <t>2253.000</t>
+  </si>
+  <si>
+    <t>Distribuidores e Alojamento de Fios CGrid Hrd SRDW THo le 8ckt</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>3086.000</t>
+  </si>
+  <si>
+    <t>1243.000</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>3096.000</t>
+  </si>
+  <si>
+    <t>1543.000</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>1842.685</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>IC Driver 5A Dual ENA IX4340</t>
+  </si>
+  <si>
+    <t>SOIC-MIC4126</t>
+  </si>
+  <si>
+    <t>1213.000</t>
+  </si>
+  <si>
+    <t>Drivers de portas Dual 5A Gate Driver IC</t>
+  </si>
+  <si>
+    <t>C138519</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>1518.000</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>IC ISO SI8660</t>
+  </si>
+  <si>
+    <t>SOIC127P610X155-16N</t>
+  </si>
+  <si>
+    <t>2026.000</t>
+  </si>
+  <si>
+    <t>1958.000</t>
+  </si>
+  <si>
+    <t>Isoladores digitais 1 kV 6-channel digital isolator</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>IC DC/DC 5V</t>
+  </si>
+  <si>
+    <t>2526.000</t>
+  </si>
+  <si>
+    <t>1048.000</t>
+  </si>
+  <si>
+    <t>Conversores CC/CC sem isolação 7-36Vin 5Vout 1.5A VSIP Encapsulated</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>2541.000</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>1823.000</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>2146.000</t>
+  </si>
+  <si>
+    <t>1108.000</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>2511.000</t>
+  </si>
+  <si>
+    <t>906.000</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>2066.000</t>
+  </si>
+  <si>
+    <t>1303.000</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P 8p 2.54 SR DW 3P</t>
+  </si>
+  <si>
+    <t>MOLEX_3p_105431_1103</t>
+  </si>
+  <si>
+    <t>3737.001</t>
+  </si>
+  <si>
+    <t>1913.000</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>601.002</t>
+  </si>
+  <si>
+    <t>874.000</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>1633.500</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>2393.000</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>3730.996</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>3730.999</t>
+  </si>
+  <si>
+    <t>808.000</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>1163.413</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>3301.001</t>
+  </si>
+  <si>
+    <t>Input L-N1</t>
+  </si>
+  <si>
+    <t>P 2p 5mm</t>
+  </si>
+  <si>
+    <t>connector1x2_parafuso</t>
+  </si>
+  <si>
+    <t>608.128</t>
+  </si>
+  <si>
+    <t>3518.000</t>
+  </si>
+  <si>
+    <t>Bloques de terminales de PCB de perfil estándar RS de 5,0 mm</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>178.665</t>
+  </si>
+  <si>
+    <t>3123.000</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>2678.000</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>IC Relay 5A 5V 5x20mm</t>
+  </si>
+  <si>
+    <t>Relay_-_G6DN</t>
+  </si>
+  <si>
+    <t>584.787</t>
+  </si>
+  <si>
+    <t>2943.000</t>
+  </si>
+  <si>
+    <t>Relés para uso geral 1 form A w/ 5VDC Coil-standard type</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>799.787</t>
+  </si>
+  <si>
+    <t>184.000</t>
+  </si>
+  <si>
+    <t>267.000</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>348.000</t>
+  </si>
+  <si>
+    <t>714.000</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R 2k7 1/8 0805 1%</t>
+  </si>
+  <si>
+    <t>156.000</t>
+  </si>
+  <si>
+    <t>716.000</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Espesso - SMD 1/8watt 2.7Kohms 1% 100ppm</t>
+  </si>
+  <si>
+    <t>C17530</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>IC DC/DC 15V ISO</t>
+  </si>
+  <si>
+    <t>MeanWell_SCWNo6</t>
+  </si>
+  <si>
+    <t>1667.000</t>
+  </si>
+  <si>
+    <t>1137.000</t>
+  </si>
+  <si>
+    <t>Conversores CC/CC com isolação 6W 18-36Vin 15Vout 400mA DIP24 Iso</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>256.000</t>
+  </si>
+  <si>
+    <t>1617.999</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>207.000</t>
+  </si>
+  <si>
+    <t>2229.000</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>170.000</t>
+  </si>
+  <si>
+    <t>1740.000</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>IC DC/DC 3V3</t>
+  </si>
+  <si>
+    <t>DC/DC_-_R-78E3.3</t>
+  </si>
+  <si>
+    <t>306.000</t>
+  </si>
+  <si>
+    <t>2088.000</t>
+  </si>
+  <si>
+    <t>Conversores CC/CC sem isolação 3.3V 500MA OUT THRU</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>339.118</t>
+  </si>
+  <si>
+    <t>2336.000</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R 150 1/8W 0805 1%</t>
+  </si>
+  <si>
+    <t>435.000</t>
+  </si>
+  <si>
+    <t>2232.000</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Espesso - SMD 1/8watt 150ohms 1% 100ppm</t>
+  </si>
+  <si>
+    <t>C17471</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>1598.314</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>261.000</t>
+  </si>
+  <si>
+    <t>892.000</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>613.000</t>
+  </si>
+  <si>
+    <t>1343.000</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>183.000</t>
+  </si>
+  <si>
+    <t>1049.000</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R 330 1/8 0805 1%</t>
+  </si>
+  <si>
+    <t>612.000</t>
+  </si>
+  <si>
+    <t>1162.000</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Espesso - SMD 1/8Watt 330ohms 1% Commercial Use</t>
+  </si>
+  <si>
+    <t>C17630</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>315.842</t>
+  </si>
+  <si>
+    <t>1230.000</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>1234.000</t>
+  </si>
+  <si>
+    <t>2509.000</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R 10 1/8W 0805 1%</t>
+  </si>
+  <si>
+    <t>914.000</t>
+  </si>
+  <si>
+    <t>2630.000</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Espesso - SMD 1/8Watt 10ohms 1% Commercial Use</t>
+  </si>
+  <si>
+    <t>C17415</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>1040.000</t>
+  </si>
+  <si>
+    <t>2679.000</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>501.000</t>
+  </si>
+  <si>
+    <t>2648.000</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>2353.000</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>3376.000</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>3636.000</t>
+  </si>
+  <si>
+    <t>2823.000</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>3602.000</t>
+  </si>
+  <si>
+    <t>2699.000</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>3279.000</t>
+  </si>
+  <si>
+    <t>2163.000</t>
+  </si>
+  <si>
     <t>U12</t>
   </si>
   <si>
     <t>IC DUAL MOS DRIVER MIC4127</t>
   </si>
   <si>
-    <t>BottomLayer</t>
-  </si>
-  <si>
-    <t>SOIC-MIC4126</t>
-  </si>
-  <si>
     <t>1065.000</t>
   </si>
   <si>
@@ -97,693 +802,6 @@
   </si>
   <si>
     <t>C20551</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R 0 1/8W 0805</t>
-  </si>
-  <si>
-    <t>RESC_0805</t>
-  </si>
-  <si>
-    <t>3279.000</t>
-  </si>
-  <si>
-    <t>2163.000</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Espesso - SMD 1/8Watt 0ohms Commercial Use</t>
-  </si>
-  <si>
-    <t>C17477</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>3602.000</t>
-  </si>
-  <si>
-    <t>2699.000</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>3636.000</t>
-  </si>
-  <si>
-    <t>2823.000</t>
-  </si>
-  <si>
-    <t>P13</t>
-  </si>
-  <si>
-    <t>P 8p 2.54 SR DW 8P</t>
-  </si>
-  <si>
-    <t>Header_8x1_8.5mm</t>
-  </si>
-  <si>
-    <t>3376.000</t>
-  </si>
-  <si>
-    <t>2353.000</t>
-  </si>
-  <si>
-    <t>Distribuidores e Alojamento de Fios CGrid Hrd SRDW THo le 8ckt</t>
-  </si>
-  <si>
-    <t>P11</t>
-  </si>
-  <si>
-    <t>2253.000</t>
-  </si>
-  <si>
-    <t>P9</t>
-  </si>
-  <si>
-    <t>2291.000</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>TopLayer</t>
-  </si>
-  <si>
-    <t>716.000</t>
-  </si>
-  <si>
-    <t>2648.000</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>501.000</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>R 10 1/8W 0805 1%</t>
-  </si>
-  <si>
-    <t>1040.000</t>
-  </si>
-  <si>
-    <t>2679.000</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Espesso - SMD 1/8Watt 10ohms 1% Commercial Use</t>
-  </si>
-  <si>
-    <t>C17415</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>914.000</t>
-  </si>
-  <si>
-    <t>2630.000</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>C 10uF 1206 MLCC 50V X5R</t>
-  </si>
-  <si>
-    <t>CAPC_1206</t>
-  </si>
-  <si>
-    <t>1234.000</t>
-  </si>
-  <si>
-    <t>2509.000</t>
-  </si>
-  <si>
-    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 1206 50V 10uF 20% X5R</t>
-  </si>
-  <si>
-    <t>C13585</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>IC DC/DC 5V</t>
-  </si>
-  <si>
-    <t>DC/DC_-_OKI-78SR-E</t>
-  </si>
-  <si>
-    <t>315.842</t>
-  </si>
-  <si>
-    <t>1230.000</t>
-  </si>
-  <si>
-    <t>Conversores CC/CC sem isolação 7-36Vin 5Vout 1.5A VSIP Encapsulated</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R 330 1/8 0805 1%</t>
-  </si>
-  <si>
-    <t>612.000</t>
-  </si>
-  <si>
-    <t>1162.000</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Espesso - SMD 1/8Watt 330ohms 1% Commercial Use</t>
-  </si>
-  <si>
-    <t>C17630</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>IND RLS-126</t>
-  </si>
-  <si>
-    <t>Inductor_-_RLS-126</t>
-  </si>
-  <si>
-    <t>183.000</t>
-  </si>
-  <si>
-    <t>1049.000</t>
-  </si>
-  <si>
-    <t>Indutores fixos Line Inductors for RECOM Power Supply</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>IC LED 1206</t>
-  </si>
-  <si>
-    <t>DIODE_1206</t>
-  </si>
-  <si>
-    <t>613.000</t>
-  </si>
-  <si>
-    <t>1343.000</t>
-  </si>
-  <si>
-    <t>LEDs padrão - SMD GREEN WATER CLEAR</t>
-  </si>
-  <si>
-    <t>C88326</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>261.000</t>
-  </si>
-  <si>
-    <t>892.000</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>256.000</t>
-  </si>
-  <si>
-    <t>1598.314</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R 150 1/8W 0805 1%</t>
-  </si>
-  <si>
-    <t>435.000</t>
-  </si>
-  <si>
-    <t>2232.000</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Espesso - SMD 1/8watt 150ohms 1% 100ppm</t>
-  </si>
-  <si>
-    <t>C17471</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>339.118</t>
-  </si>
-  <si>
-    <t>2336.000</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>IC DC/DC 3V3</t>
-  </si>
-  <si>
-    <t>DC/DC_-_R-78E3.3</t>
-  </si>
-  <si>
-    <t>306.000</t>
-  </si>
-  <si>
-    <t>2088.000</t>
-  </si>
-  <si>
-    <t>Conversores CC/CC sem isolação 3.3V 500MA OUT THRU</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>170.000</t>
-  </si>
-  <si>
-    <t>1740.000</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>207.000</t>
-  </si>
-  <si>
-    <t>2229.000</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>1617.999</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>IC DC/DC 15V ISO</t>
-  </si>
-  <si>
-    <t>MeanWell_SCWNo6</t>
-  </si>
-  <si>
-    <t>1667.000</t>
-  </si>
-  <si>
-    <t>1137.000</t>
-  </si>
-  <si>
-    <t>Conversores CC/CC com isolação 6W 18-36Vin 15Vout 400mA DIP24 Iso</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R 2k7 1/8 0805 1%</t>
-  </si>
-  <si>
-    <t>64.000</t>
-  </si>
-  <si>
-    <t>125.000</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Espesso - SMD 1/8watt 2.7Kohms 1% 100ppm</t>
-  </si>
-  <si>
-    <t>C17530</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>190.000</t>
-  </si>
-  <si>
-    <t>139.000</t>
-  </si>
-  <si>
-    <t>P 2p 5mm</t>
-  </si>
-  <si>
-    <t>connector1x2_parafuso</t>
-  </si>
-  <si>
-    <t>181.001</t>
-  </si>
-  <si>
-    <t>444.000</t>
-  </si>
-  <si>
-    <t>Bloques de terminales de PCB de perfil estándar RS de 5,0 mm</t>
-  </si>
-  <si>
-    <t>U13</t>
-  </si>
-  <si>
-    <t>IC Relay 5A 5V 5x20mm</t>
-  </si>
-  <si>
-    <t>Relay_-_G6DN</t>
-  </si>
-  <si>
-    <t>799.787</t>
-  </si>
-  <si>
-    <t>2943.000</t>
-  </si>
-  <si>
-    <t>Relés para uso geral 1 form A w/ 5VDC Coil-standard type</t>
-  </si>
-  <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>584.787</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>178.665</t>
-  </si>
-  <si>
-    <t>2678.000</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>3123.000</t>
-  </si>
-  <si>
-    <t>Input L-N1</t>
-  </si>
-  <si>
-    <t>608.128</t>
-  </si>
-  <si>
-    <t>3518.000</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>P 8p 2.54 SR DW 3P</t>
-  </si>
-  <si>
-    <t>MOLEX_3p_105431_1103</t>
-  </si>
-  <si>
-    <t>3301.001</t>
-  </si>
-  <si>
-    <t>808.000</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>3730.999</t>
-  </si>
-  <si>
-    <t>1163.413</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>3730.996</t>
-  </si>
-  <si>
-    <t>1518.000</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>601.002</t>
-  </si>
-  <si>
-    <t>2393.000</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>1633.500</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>874.000</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>3737.001</t>
-  </si>
-  <si>
-    <t>1913.000</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>2066.000</t>
-  </si>
-  <si>
-    <t>1303.000</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>2511.000</t>
-  </si>
-  <si>
-    <t>906.000</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>2146.000</t>
-  </si>
-  <si>
-    <t>1108.000</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>IC Driver 5A Dual ENA IX4340</t>
-  </si>
-  <si>
-    <t>3086.000</t>
-  </si>
-  <si>
-    <t>1823.000</t>
-  </si>
-  <si>
-    <t>Drivers de portas Dual 5A Gate Driver IC</t>
-  </si>
-  <si>
-    <t>C138519</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>IC ISO SI8660</t>
-  </si>
-  <si>
-    <t>SOIC127P610X155-16N</t>
-  </si>
-  <si>
-    <t>2541.000</t>
-  </si>
-  <si>
-    <t>1958.000</t>
-  </si>
-  <si>
-    <t>Isoladores digitais 1 kV 6-channel digital isolator</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>2526.000</t>
-  </si>
-  <si>
-    <t>1048.000</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>2026.000</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
-    <t>1213.000</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>1842.685</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>3096.000</t>
-  </si>
-  <si>
-    <t>1543.000</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>1243.000</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>1380.000</t>
-  </si>
-  <si>
-    <t>1665.000</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>1193.000</t>
-  </si>
-  <si>
-    <t>1728.000</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>1538.000</t>
-  </si>
-  <si>
-    <t>1729.000</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>979.000</t>
-  </si>
-  <si>
-    <t>1681.000</t>
-  </si>
-  <si>
-    <t>P12</t>
-  </si>
-  <si>
-    <t>P 4p 2.54 MOL FAN</t>
-  </si>
-  <si>
-    <t>HEADER_4p_molex</t>
-  </si>
-  <si>
-    <t>3816.000</t>
-  </si>
-  <si>
-    <t>2913.000</t>
-  </si>
-  <si>
-    <t>Distribuidores e Alojamento de Fios 4 PIN HEADER WITH FR R WITH FRICTION LOCK</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R 1k2 1/8 0805 1%</t>
-  </si>
-  <si>
-    <t>1596.000</t>
-  </si>
-  <si>
-    <t>1855.000</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Espesso - SMD 1/8watt 1.2Kohms 1%</t>
-  </si>
-  <si>
-    <t>C17379</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>IC DC/DC 12V</t>
-  </si>
-  <si>
-    <t>1310.000</t>
-  </si>
-  <si>
-    <t>1872.000</t>
-  </si>
-  <si>
-    <t>Conversores CC/CC sem isolação 15-36Vin 12Vout 1.0A VSIP Encapsulated</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>1465.000</t>
-  </si>
-  <si>
-    <t>2516.055</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>1396.000</t>
-  </si>
-  <si>
-    <t>2388.685</t>
   </si>
 </sst>
 </file>
@@ -1590,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,7 +1713,7 @@
         <v>23</v>
       </c>
       <c r="G14">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
         <v>24</v>
@@ -1724,7 +1742,7 @@
         <v>30</v>
       </c>
       <c r="G15">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
@@ -1767,1162 +1785,1156 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G17">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G18">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G19">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G20">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G21">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G22">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G23">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="H23" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="G24">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="H24" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G25">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="H25" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26">
+        <v>360</v>
+      </c>
+      <c r="H26" t="s">
         <v>73</v>
       </c>
-      <c r="E26" t="s">
+      <c r="I26" t="s">
         <v>74</v>
-      </c>
-      <c r="F26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26">
-        <v>180</v>
-      </c>
-      <c r="H26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G27">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
       </c>
       <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
         <v>85</v>
       </c>
-      <c r="E28" t="s">
-        <v>86</v>
-      </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G28">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
+        <v>96</v>
+      </c>
+      <c r="I28" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29">
         <v>90</v>
       </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29">
-        <v>270</v>
-      </c>
       <c r="H29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G30">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G31">
         <v>180</v>
       </c>
       <c r="H31" t="s">
-        <v>69</v>
-      </c>
-      <c r="I31" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
         <v>102</v>
       </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" t="s">
-        <v>28</v>
-      </c>
       <c r="E32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" t="s">
         <v>104</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32">
+        <v>270</v>
+      </c>
+      <c r="H32" t="s">
         <v>105</v>
-      </c>
-      <c r="G32">
-        <v>360</v>
-      </c>
-      <c r="H32" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33">
         <v>90</v>
       </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
       <c r="H33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G34">
         <v>360</v>
       </c>
       <c r="H34" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G35">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="H35" t="s">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="I35" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G36">
         <v>180</v>
       </c>
       <c r="H36" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="F37" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G37">
         <v>180</v>
       </c>
       <c r="H37" t="s">
-        <v>69</v>
-      </c>
-      <c r="I37" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" t="s">
         <v>125</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
         <v>126</v>
       </c>
-      <c r="C38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" t="s">
-        <v>127</v>
-      </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F38" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G38">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H38" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="E39" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" t="s">
         <v>133</v>
       </c>
-      <c r="F39" t="s">
-        <v>134</v>
-      </c>
       <c r="G39">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H39" t="s">
-        <v>135</v>
-      </c>
-      <c r="I39" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40">
+        <v>180</v>
+      </c>
+      <c r="H40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" t="s">
         <v>137</v>
       </c>
-      <c r="B40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" t="s">
-        <v>138</v>
-      </c>
-      <c r="F40" t="s">
-        <v>139</v>
-      </c>
-      <c r="G40">
-        <v>270</v>
-      </c>
-      <c r="H40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" t="s">
-        <v>142</v>
-      </c>
       <c r="F41" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="G41">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="H41" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F42" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G42">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H42" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="F43" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G43">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H43" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" t="s">
         <v>140</v>
       </c>
-      <c r="C44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" t="s">
-        <v>141</v>
-      </c>
-      <c r="E44" t="s">
-        <v>154</v>
-      </c>
-      <c r="F44" t="s">
-        <v>155</v>
-      </c>
       <c r="G44">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H44" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C45" t="s">
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E45" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F45" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G45">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F46" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="H46" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F47" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G47">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="H47" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E48" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F48" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G48">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" t="s">
         <v>163</v>
       </c>
-      <c r="E49" t="s">
-        <v>167</v>
-      </c>
       <c r="F49" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49">
+        <v>90</v>
+      </c>
+      <c r="H49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" t="s">
         <v>165</v>
       </c>
-      <c r="G49">
-        <v>180</v>
-      </c>
-      <c r="H49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>170</v>
-      </c>
-      <c r="B50" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" t="s">
-        <v>163</v>
-      </c>
-      <c r="E50" t="s">
-        <v>171</v>
-      </c>
-      <c r="F50" t="s">
-        <v>172</v>
-      </c>
       <c r="G50">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F51" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G51">
         <v>180</v>
       </c>
       <c r="H51" t="s">
-        <v>44</v>
+        <v>66</v>
+      </c>
+      <c r="I51" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F52" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G52">
         <v>180</v>
       </c>
       <c r="H52" t="s">
-        <v>44</v>
+        <v>173</v>
+      </c>
+      <c r="I52" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" t="s">
         <v>178</v>
-      </c>
-      <c r="B53" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" t="s">
-        <v>163</v>
-      </c>
-      <c r="E53" t="s">
-        <v>174</v>
       </c>
       <c r="F53" t="s">
         <v>179</v>
       </c>
       <c r="G53">
+        <v>270</v>
+      </c>
+      <c r="H53" t="s">
         <v>180</v>
-      </c>
-      <c r="H53" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
         <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="E54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G54">
         <v>180</v>
       </c>
       <c r="H54" t="s">
-        <v>44</v>
+        <v>73</v>
+      </c>
+      <c r="I54" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G55">
         <v>180</v>
       </c>
       <c r="H55" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I55" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G56">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-      <c r="I56" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="E57" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F57" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G57">
         <v>360</v>
       </c>
       <c r="H57" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F58" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G58">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="I58" t="s">
-        <v>197</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s">
         <v>201</v>
@@ -2931,27 +2943,30 @@
         <v>202</v>
       </c>
       <c r="G59">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="H59" t="s">
         <v>203</v>
       </c>
+      <c r="I59" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="F60" t="s">
         <v>206</v>
@@ -2960,7 +2975,10 @@
         <v>180</v>
       </c>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="I60" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2968,390 +2986,390 @@
         <v>207</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="E61" t="s">
         <v>208</v>
       </c>
       <c r="F61" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G61">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H61" t="s">
-        <v>203</v>
+        <v>73</v>
+      </c>
+      <c r="I61" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B62" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F62" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="G62">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="H62" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="I62" t="s">
-        <v>197</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B63" t="s">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E63" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F63" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G63">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="H63" t="s">
-        <v>196</v>
-      </c>
-      <c r="I63" t="s">
-        <v>197</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E64" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="F64" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G64">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="H64" t="s">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c r="I64" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E65" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F65" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G65">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="H65" t="s">
-        <v>69</v>
-      </c>
-      <c r="I65" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E66" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="F66" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="G66">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="H66" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I66" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="C67" t="s">
         <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="G67">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s">
-        <v>44</v>
+        <v>232</v>
+      </c>
+      <c r="I67" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="C68" t="s">
         <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E68" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="F68" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="G68">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H68" t="s">
-        <v>69</v>
+        <v>232</v>
       </c>
       <c r="I68" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E69" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="F69" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="G69">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="H69" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="I69" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D70" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="E70" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="F70" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="I70" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
         <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E71" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="F71" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="G71">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="H71" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B72" t="s">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="E72" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F72" t="s">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c r="G72">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="H72" t="s">
-        <v>237</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B73" t="s">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E73" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F73" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G73">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="H73" t="s">
-        <v>242</v>
-      </c>
-      <c r="I73" t="s">
-        <v>243</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B74" t="s">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E74" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F74" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G74">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="H74" t="s">
-        <v>248</v>
+        <v>31</v>
+      </c>
+      <c r="I74" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3403,13 +3421,42 @@
         <v>254</v>
       </c>
       <c r="G76">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H76" t="s">
         <v>31</v>
       </c>
       <c r="I76" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>255</v>
+      </c>
+      <c r="B77" t="s">
+        <v>256</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>94</v>
+      </c>
+      <c r="E77" t="s">
+        <v>257</v>
+      </c>
+      <c r="F77" t="s">
+        <v>258</v>
+      </c>
+      <c r="G77">
+        <v>180</v>
+      </c>
+      <c r="H77" t="s">
+        <v>259</v>
+      </c>
+      <c r="I77" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
